--- a/python/multiscalepy/multiscale/modelcreator/models/galactose/galactose_annotations.xlsx
+++ b/python/multiscalepy/multiscale/modelcreator/models/galactose/galactose_annotations.xlsx
@@ -572,22 +572,10 @@
     <t>^\w+__glc1p\w{0,1}$</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CHEBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">58601</t>
-    </r>
-  </si>
-  <si>
-    <t>alpha-D-glucose 1-phosphate</t>
+    <t>CHEBI:58601</t>
+  </si>
+  <si>
+    <t>alpha-D-glucose 1-phosphate(2-)</t>
   </si>
   <si>
     <t>C00103</t>
@@ -1012,11 +1000,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1034,12 +1023,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1049,13 +1032,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1127,15 +1103,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1143,47 +1123,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1266,13 +1242,13 @@
   </sheetPr>
   <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6989795918367"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6377551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4744897959184"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1683673469388"/>
@@ -1618,6 +1594,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
+      <c r="E16" s="0"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
@@ -2343,6 +2320,7 @@
       <c r="F54" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
@@ -2363,6 +2341,7 @@
       <c r="F55" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
@@ -2383,6 +2362,7 @@
       <c r="F56" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
@@ -2403,6 +2383,7 @@
       <c r="F57" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
@@ -2423,6 +2404,7 @@
       <c r="F58" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="G58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
@@ -2443,6 +2425,7 @@
       <c r="F59" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
@@ -2474,6 +2457,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
+      <c r="G61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
@@ -2494,6 +2478,7 @@
       <c r="F62" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
@@ -2537,6 +2522,7 @@
       <c r="F64" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
@@ -2580,6 +2566,7 @@
       <c r="F66" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -2623,6 +2610,7 @@
       <c r="F68" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
@@ -2698,6 +2686,7 @@
       <c r="F72" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
@@ -2718,6 +2707,7 @@
       <c r="F73" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12"/>
@@ -2770,6 +2760,7 @@
       <c r="F76" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
@@ -2790,6 +2781,7 @@
       <c r="F77" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
@@ -2810,6 +2802,7 @@
       <c r="F78" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
@@ -2830,6 +2823,7 @@
       <c r="F79" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
@@ -2850,6 +2844,7 @@
       <c r="F80" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="G80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12"/>
@@ -2902,6 +2897,7 @@
       <c r="F83" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
@@ -2922,6 +2918,7 @@
       <c r="F84" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
@@ -2942,6 +2939,7 @@
       <c r="F85" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
@@ -2962,6 +2960,7 @@
       <c r="F86" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
@@ -2982,6 +2981,7 @@
       <c r="F87" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="G87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
@@ -3002,6 +3002,7 @@
       <c r="F88" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
@@ -3022,6 +3023,7 @@
       <c r="F89" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
@@ -3042,6 +3044,7 @@
       <c r="F90" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
@@ -3062,6 +3065,7 @@
       <c r="F91" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12"/>
@@ -3114,6 +3118,7 @@
       <c r="F94" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
@@ -3134,6 +3139,7 @@
       <c r="F95" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
@@ -3154,6 +3160,7 @@
       <c r="F96" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
@@ -3174,6 +3181,7 @@
       <c r="F97" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12"/>
@@ -3226,6 +3234,7 @@
       <c r="F100" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
@@ -3246,6 +3255,7 @@
       <c r="F101" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
@@ -3266,6 +3276,7 @@
       <c r="F102" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
@@ -3286,6 +3297,7 @@
       <c r="F103" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12"/>
@@ -3338,6 +3350,7 @@
       <c r="F106" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
@@ -3358,6 +3371,7 @@
       <c r="F107" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
@@ -3378,6 +3392,7 @@
       <c r="F108" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
@@ -3398,6 +3413,7 @@
       <c r="F109" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
@@ -3418,6 +3434,7 @@
       <c r="F110" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
@@ -3438,6 +3455,7 @@
       <c r="F111" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
@@ -3458,6 +3476,7 @@
       <c r="F112" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="G112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="12"/>
@@ -3510,6 +3529,7 @@
       <c r="F115" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
@@ -3530,6 +3550,7 @@
       <c r="F116" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
@@ -3550,6 +3571,7 @@
       <c r="F117" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
@@ -3570,6 +3592,7 @@
       <c r="F118" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
@@ -3590,6 +3613,7 @@
       <c r="F119" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="G119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12"/>
@@ -3642,6 +3666,7 @@
       <c r="F122" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
@@ -3662,6 +3687,7 @@
       <c r="F123" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
@@ -3682,6 +3708,7 @@
       <c r="F124" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
@@ -3702,6 +3729,7 @@
       <c r="F125" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="12"/>
@@ -3754,6 +3782,7 @@
       <c r="F128" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
@@ -3774,6 +3803,7 @@
       <c r="F129" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
@@ -3794,6 +3824,7 @@
       <c r="F130" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="12"/>
@@ -3846,6 +3877,7 @@
       <c r="F133" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="G133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
@@ -3866,6 +3898,7 @@
       <c r="F134" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
@@ -3886,6 +3919,7 @@
       <c r="F135" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
@@ -3906,6 +3940,7 @@
       <c r="F136" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="G136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="12"/>
@@ -3958,6 +3993,7 @@
       <c r="F139" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
@@ -3978,6 +4014,7 @@
       <c r="F140" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
@@ -3990,6 +4027,7 @@
         <v>31</v>
       </c>
       <c r="F141" s="7"/>
+      <c r="G141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="12"/>
@@ -4034,6 +4072,7 @@
         <v>31</v>
       </c>
       <c r="F144" s="7"/>
+      <c r="G144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="12"/>
@@ -4100,11 +4139,13 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
+      <c r="G149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
@@ -4201,6 +4242,7 @@
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
+      <c r="G154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
@@ -4217,6 +4259,7 @@
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
+      <c r="G155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="12"/>
@@ -4311,6 +4354,7 @@
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
+      <c r="G160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
@@ -4327,6 +4371,7 @@
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
+      <c r="G161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="12"/>
@@ -4360,7 +4405,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
         <v>184</v>
       </c>
@@ -4419,7 +4464,9 @@
       <c r="D166" s="14" t="s">
         <v>189</v>
       </c>
+      <c r="E166" s="0"/>
       <c r="F166" s="7"/>
+      <c r="G166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
@@ -4436,6 +4483,7 @@
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
+      <c r="G167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="12"/>
@@ -4530,6 +4578,7 @@
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
+      <c r="G172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
@@ -4546,6 +4595,7 @@
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
+      <c r="G173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="12"/>
@@ -4640,6 +4690,7 @@
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
+      <c r="G178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
@@ -4656,6 +4707,7 @@
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
+      <c r="G179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="12"/>
@@ -4750,6 +4802,7 @@
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
+      <c r="G184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
@@ -4766,6 +4819,7 @@
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
+      <c r="G185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="12"/>
@@ -4860,6 +4914,7 @@
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
+      <c r="G190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
@@ -4876,6 +4931,7 @@
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
+      <c r="G191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="12"/>
@@ -4970,6 +5026,7 @@
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
+      <c r="G196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
@@ -4986,6 +5043,7 @@
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
+      <c r="G197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="12"/>
@@ -5080,6 +5138,7 @@
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
+      <c r="G202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
@@ -5096,6 +5155,7 @@
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
+      <c r="G203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12"/>
@@ -5190,6 +5250,7 @@
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
+      <c r="G208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
@@ -5206,6 +5267,7 @@
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
+      <c r="G209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12"/>
@@ -5300,6 +5362,7 @@
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
+      <c r="G214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
@@ -5316,6 +5379,7 @@
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
+      <c r="G215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12"/>
@@ -5410,6 +5474,7 @@
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
+      <c r="G220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
@@ -5426,6 +5491,7 @@
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
+      <c r="G221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12"/>
@@ -5520,6 +5586,7 @@
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
+      <c r="G226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
@@ -5536,6 +5603,7 @@
       </c>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
+      <c r="G227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12"/>
@@ -5630,6 +5698,7 @@
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
+      <c r="G232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
@@ -5646,6 +5715,7 @@
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
+      <c r="G233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12"/>
@@ -5740,6 +5810,7 @@
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
+      <c r="G238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
@@ -5754,7 +5825,9 @@
       <c r="D239" s="15" t="n">
         <v>-3</v>
       </c>
+      <c r="E239" s="0"/>
       <c r="F239" s="7"/>
+      <c r="G239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12"/>
@@ -5849,6 +5922,7 @@
       </c>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
+      <c r="G244" s="0"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
@@ -5865,6 +5939,7 @@
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
+      <c r="G245" s="0"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12"/>
@@ -5913,6 +5988,7 @@
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
+      <c r="G248" s="0"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
@@ -5929,6 +6005,7 @@
       </c>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
+      <c r="G249" s="0"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12"/>
@@ -5977,6 +6054,7 @@
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
+      <c r="G252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
@@ -5993,6 +6071,7 @@
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
+      <c r="G253" s="0"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12"/>
@@ -6041,6 +6120,7 @@
       </c>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
+      <c r="G256" s="0"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
@@ -6057,6 +6137,7 @@
       </c>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
+      <c r="G257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12"/>
@@ -6151,6 +6232,7 @@
       </c>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
+      <c r="G262" s="0"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
@@ -6167,6 +6249,7 @@
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
+      <c r="G263" s="0"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12"/>
@@ -6261,6 +6344,7 @@
       </c>
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
+      <c r="G268" s="0"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
@@ -6277,6 +6361,7 @@
       </c>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
+      <c r="G269" s="0"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12"/>
@@ -6371,6 +6456,7 @@
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
+      <c r="G274" s="0"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
@@ -6387,6 +6473,7 @@
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
+      <c r="G275" s="0"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12"/>
@@ -6481,6 +6568,7 @@
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
+      <c r="G280" s="0"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
@@ -6497,6 +6585,7 @@
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
+      <c r="G281" s="0"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12"/>
@@ -6591,6 +6680,7 @@
       </c>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
+      <c r="G286" s="0"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
@@ -6607,6 +6697,7 @@
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
+      <c r="G287" s="0"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12"/>
@@ -6701,6 +6792,7 @@
       </c>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
+      <c r="G292" s="0"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
@@ -6717,6 +6809,7 @@
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
+      <c r="G293" s="0"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="12"/>
@@ -6896,6 +6989,15 @@
       <c r="G302" s="9" t="s">
         <v>316</v>
       </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0"/>
+      <c r="B303" s="0"/>
+      <c r="C303" s="0"/>
+      <c r="D303" s="0"/>
+      <c r="E303" s="0"/>
+      <c r="F303" s="0"/>
+      <c r="G303" s="0"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="4" t="s">
